--- a/A/media/CSV/Stage1.xlsx
+++ b/A/media/CSV/Stage1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeta1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takayosi\Documents\A_Team2017Zenki\A\media\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="11993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>TackleEnemy</t>
     <phoneticPr fontId="1"/>
@@ -171,47 +171,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4,8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5,9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8,14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3,6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2,4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4,7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8,12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.5,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5,10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3,5</t>
+    <t>1:2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4:6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4:8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5:9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8:14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8:12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4:7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5:1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5:10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -258,8 +278,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -844,7 +867,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
             <a:t>はドローンの数</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1209,184 +1231,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.0625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>0.5</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>-4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1471,6 +1493,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/A/media/CSV/Stage1.xlsx
+++ b/A/media/CSV/Stage1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>TackleEnemy</t>
     <phoneticPr fontId="1"/>
@@ -171,67 +171,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1:3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4:6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4:8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5:9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8:14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8:12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4:7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5:10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>1:2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>1:3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4:6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3:4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2:4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4:8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5:9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8:14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3:6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8:12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2:3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4:7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.5:1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5:10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1:3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3:5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1232,7 +1264,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1248,35 +1280,35 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1">
         <v>0</v>
@@ -1299,28 +1331,28 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M2" s="1">
         <v>4</v>
@@ -1346,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -1371,40 +1403,204 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>-4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="D6" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <v>0</v>
       </c>
     </row>

--- a/A/media/CSV/Stage1.xlsx
+++ b/A/media/CSV/Stage1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>TackleEnemy</t>
     <phoneticPr fontId="1"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4:8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5:9</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -207,63 +203,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>5:10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>2:3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>4:7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5:10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3:5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1:2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1:1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0:0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1:3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1264,7 +1296,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A3" sqref="A3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1281,16 +1313,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>25</v>
@@ -1313,46 +1345,46 @@
       <c r="L1" s="1">
         <v>0</v>
       </c>
-      <c r="M1" s="1">
-        <v>0</v>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="M2" s="1">
         <v>4</v>
@@ -1362,26 +1394,26 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -1404,31 +1436,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1445,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1454,7 +1486,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>25</v>
@@ -1495,7 +1527,7 @@
         <v>-10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>25</v>
@@ -1536,7 +1568,7 @@
         <v>-10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>25</v>
@@ -1577,7 +1609,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>25</v>
